--- a/biology/Médecine/Jean_Goulin/Jean_Goulin.xlsx
+++ b/biology/Médecine/Jean_Goulin/Jean_Goulin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Goulin, né à Reims le 10 janvier 1728, mort à Paris le 11 floréal an VII (30 avril 1799), est un encyclopédiste et professeur d’histoire médicale à l’École de médecine de Paris. L'essentiel de ses travaux portent sur la littérature médicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parents de Jean Goulin étaient Denis Jean Goulin et Jeanne Jacqueline Émon (Émond).
 Son père exerçait la profession de marchand mais il mourut très jeune et ne lui laissa point de fortune. Il fut donc élevé par sa mère qui lui permit d'étudier dans un collège catholique de Reims.
@@ -553,7 +567,7 @@
 Jusqu'en 1762, il rédigea les Annales typographiques concurremment avec Roux et Darcet ; la même année il fit la révision de l'abrégé du dictionnaire de Trévoux et participa à la rédaction du Dictionnaire domestique portatif de cuisine, d'office et de distillation depuis la page 285 du premier volume jusqu'à la fin et pour les trois premiers du 2e volume.
 En 1762, il effectua également la révision de l'ouvrage l'Imitation de J.C. rédigée par le Père Morel.
 En 1763, il abandonna la rédaction de l'ouvrage culinaire qu'il avait commencé et il rendit au libraire Vincent le traité fait entre Aubert de la Chenaye des Bois, Auguste Roux et lui-même. Cet abandon se traduisit pour Jean Goulin par plusieurs tracasseries qu'il eut avec François Alexandre Aubert de la Chenaye Des Bois qu'il maltraite fort à ce sujet (à tort ou à raison).
-Le troisième volume de ce dictionnaire a paru en 1764[1].
+Le troisième volume de ce dictionnaire a paru en 1764.
 En 1766, il épousa Françoise Mélanie Paris, fille cadette de Claude Paris, célèbre artisan opticien, né vers 1703 à Paris (Chaillot) et mort vers 1763 (Jean Goulin vivait avec cette famille depuis 1752).
 Les nombreux détails que Jean Goulin rapporte, dans ses mémoires, au sujet de son épouse quoique vraisemblables sont tout à fait romanesques.
 Adonné tout entier aux travaux d'écriture, travaillant jusqu'à seize à dix-huit heures par jour, Jean Goulin passa cependant les premières années de son mariage avec juste assez de revenus pour vivre sans même pouvoir rien économiser.
